--- a/predictions/multiple/RandomForestRegressor/Nefropatías.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Nefropatías.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05184650375568749</v>
+        <v>0.05324867839945693</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9984752827772095</v>
+        <v>0.9984340472131146</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06079290612921698</v>
+        <v>0.06062274245846715</v>
       </c>
       <c r="C3" t="n">
-        <v>0.999423352041145</v>
+        <v>0.9994249661198206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05530395613054558</v>
+        <v>0.056510253549712</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9992512185720416</v>
+        <v>0.9992348860496097</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/predictions/multiple/RandomForestRegressor/Nefropatías.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Nefropatías.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05324867839945693</v>
+        <v>0.05169591464269167</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9984340472131146</v>
+        <v>0.9984797113461104</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06062274245846715</v>
+        <v>0.06091178181375919</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9994249661198206</v>
+        <v>0.9994222244520031</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.056510253549712</v>
+        <v>0.05609042424300781</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9992348860496097</v>
+        <v>0.9992405702792702</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/predictions/multiple/RandomForestRegressor/Nefropatías.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Nefropatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05169591464269167</v>
+        <v>0.05219200075429666</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9984797113461104</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.9984651222999151</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1672194154759529</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -480,12 +488,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06091178181375919</v>
+        <v>0.0600564834799825</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9994222244520031</v>
-      </c>
-      <c r="D3" t="inlineStr">
+        <v>0.9994303373399993</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.177943961849664</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -498,12 +509,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05609042424300781</v>
+        <v>0.05570616243726729</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9992405702792702</v>
-      </c>
-      <c r="D4" t="inlineStr">
+        <v>0.9992457729469226</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1911701930271881</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>

--- a/predictions/multiple/RandomForestRegressor/Nefropatías.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Nefropatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05219200075429666</v>
+        <v>0.05388779317894196</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9984651222999151</v>
+        <v>0.9984152519378109</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1672194154759529</v>
+        <v>0.1693000680485397</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -488,17 +507,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0600564834799825</v>
+        <v>0.06140542632032733</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9994303373399993</v>
+        <v>0.9994175420126326</v>
       </c>
       <c r="D3" t="n">
-        <v>0.177943961849664</v>
+        <v>0.1795634552176902</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -509,17 +542,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05570616243726729</v>
+        <v>0.05597081437957018</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9992457729469226</v>
+        <v>0.9992421897229883</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1911701930271881</v>
+        <v>0.1918825461657122</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>

--- a/predictions/multiple/RandomForestRegressor/Nefropatías.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Nefropatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05388779317894196</v>
+        <v>0.05251846045315886</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9984152519378109</v>
+        <v>0.9984555216771278</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1693000680485397</v>
+        <v>0.1681329394362654</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -499,6 +509,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>0.3776785511166963</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.968</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -507,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06140542632032733</v>
+        <v>0.06090733564894349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9994175420126326</v>
+        <v>0.999422266625869</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1795634552176902</v>
+        <v>0.1782011012841147</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -534,6 +550,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>0.3776785511166963</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.968</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -542,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05597081437957018</v>
+        <v>0.05576529082056546</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9992421897229883</v>
+        <v>0.9992449723851116</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1918825461657122</v>
+        <v>0.1916073009001543</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -569,6 +591,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>0.3776785511166963</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.968</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/predictions/multiple/RandomForestRegressor/Nefropatías.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Nefropatías.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05251846045315886</v>
+        <v>0.05154576230260415</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9984555216771278</v>
+        <v>0.9984841270702651</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1681329394362654</v>
+        <v>0.1666707315098598</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -506,14 +506,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.3776785511166963</v>
+        <v>0.4707727723832553</v>
       </c>
       <c r="H2" t="n">
-        <v>0.968</v>
+        <v>0.8079999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06090733564894349</v>
+        <v>0.06007801105433204</v>
       </c>
       <c r="C3" t="n">
-        <v>0.999422266625869</v>
+        <v>0.999430133141309</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1782011012841147</v>
+        <v>0.1776033981066648</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -547,14 +547,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.3776785511166963</v>
+        <v>0.4707727723832553</v>
       </c>
       <c r="H3" t="n">
-        <v>0.968</v>
+        <v>0.8079999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05576529082056546</v>
+        <v>0.05645693811163649</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9992449723851116</v>
+        <v>0.9992356079077308</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1916073009001543</v>
+        <v>0.1914672258397309</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -588,14 +588,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.3776785511166963</v>
+        <v>0.4707727723832553</v>
       </c>
       <c r="H4" t="n">
-        <v>0.968</v>
+        <v>0.8079999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/multiple/RandomForestRegressor/Nefropatías.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Nefropatías.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05154576230260415</v>
+        <v>0.05172844094803208</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9984841270702651</v>
+        <v>0.9984787548029618</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1666707315098598</v>
+        <v>0.1671337180095297</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.4707727723832553</v>
+        <v>0.3552643978832445</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8079999999999999</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06007801105433204</v>
+        <v>0.06091766037437762</v>
       </c>
       <c r="C3" t="n">
-        <v>0.999430133141309</v>
+        <v>0.9994221686912212</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1776033981066648</v>
+        <v>0.1791403288070286</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.4707727723832553</v>
+        <v>0.3552643978832445</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8079999999999999</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05645693811163649</v>
+        <v>0.05602327423319848</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9992356079077308</v>
+        <v>0.9992414794489526</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1914672258397309</v>
+        <v>0.1895399969410011</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.4707727723832553</v>
+        <v>0.3552643978832445</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8079999999999999</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
   </sheetData>
